--- a/Lord/All_Labs/saved_result.xlsx
+++ b/Lord/All_Labs/saved_result.xlsx
@@ -414,7 +414,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1 day, 3 hours, 25 minutes</t>
+          <t>1 day, 9 hours, 46 minutes</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
